--- a/biology/Médecine/Centre_hospitalier_Andrée-Rosemon/Centre_hospitalier_Andrée-Rosemon.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Andrée-Rosemon/Centre_hospitalier_Andrée-Rosemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Andr%C3%A9e-Rosemon</t>
+          <t>Centre_hospitalier_Andrée-Rosemon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier de Cayenne Andrée-Rosemon ou Centre Hospitalier de Cayenne (CHC) est un établissement public de santé départemental situé dans la commune de Cayenne en Guyane.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Andr%C3%A9e-Rosemon</t>
+          <t>Centre_hospitalier_Andrée-Rosemon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHC est implanté dans le quartier de la Madeleine à Cayenne depuis février 1992. Il fut nommé ainsi en l'honneur d'Andrée Rosemon, première infirmière générale du Centre hospitalier de Cayenne. Il remplace l'ancien hôpital Saint-Denis situé au centre-ville de Cayenne, dont les locaux étaient devenus exigus en raison de l'accroissement démographique et la création de services. Seul l'Institut de Formation en Soins Infirmiers est situé encore dans cet ancien hôpital.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Andr%C3%A9e-Rosemon</t>
+          <t>Centre_hospitalier_Andrée-Rosemon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,52 @@
           <t>L'hôpital de Cayenne Andrée - Rosemon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le statut du CHC est celui d'établissement public de santé départemental.
 Le CHC (Centre hospitalier de Cayenne) joue un rôle central sur son territoire. Il dispose de 795 lits et place et représente plus de 60% de l'ensemble des séjours du territoire. Le CHC comptait 2161 ETP non médicaux et 316 ETP médicaux en 2019.
-Activité
-La zone d'attractivité du CHC couvre une population de 134 163 habitants, soit quasiment la moitié de la population Guyanaise, répartie sur cinq communes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Andrée-Rosemon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Andr%C3%A9e-Rosemon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L'hôpital de Cayenne Andrée - Rosemon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone d'attractivité du CHC couvre une population de 134 163 habitants, soit quasiment la moitié de la population Guyanaise, répartie sur cinq communes.
 En 2019, le CHC a réalisé :  
 48 329 passages au service d'accueil des urgences générales et 14 036 passages à l'unité des urgences gynécologiques et obstétricales.
-399 224 appels au SAMU, 1609 déplacements SMUR[1], et 857 sorties aériennes.
+399 224 appels au SAMU, 1609 déplacements SMUR, et 857 sorties aériennes.
 146 326 consultations externes
 39 972 séjours en médecine-chirurgie-obstétrique
 3 949 naissances
@@ -565,16 +616,85 @@
 L’attractivité est en hausse : + 15 ETP médicaux en 2020 grâce à la mise en place d’une politique d’attractivité médicale.
 Des services agréés pour l’accueil des internes de médecine générale et de spécialité accueillent un nombre croissant d’internes, d’assistants et d’assistants partagés.
 Le développement des pratiques avancées (IPA) est en cours.
-Un projet architectural ambitieux
-Pour soutenir ses ambitions universitaires en matière de qualité des soins, de recherche et d’enseignement, le Centre hospitalier de Cayenne est engagé dans un ambitieux projet d’extension et de modernisation architecturale reposant sur un plan d’investissement de 100M€ sur 5 ans intégrant :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Andrée-Rosemon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Andr%C3%A9e-Rosemon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>L'hôpital de Cayenne Andrée - Rosemon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Un projet architectural ambitieux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pour soutenir ses ambitions universitaires en matière de qualité des soins, de recherche et d’enseignement, le Centre hospitalier de Cayenne est engagé dans un ambitieux projet d’extension et de modernisation architecturale reposant sur un plan d’investissement de 100M€ sur 5 ans intégrant :
 La création de nouveaux plateaux de soins critiques et de médecine de spécialité à horizon 2025 ;
 La construction d’un bâtiment de consultations
 La rénovation des secteurs de psychiatrie qui s’étalonnera de 2021 à 2023 ;
 La relocalisation de l’IFSI sur le campus universitaire en janvier 2021 ;
 La création d’un bâtiment recherche en 2021, auquel sera adossée une maison hospitalière 2022 ;
-La reconstruction de trois centres délocalisés de prévention et de soins (CDPS) : Papaïchton (2022) Apatou (2023) et Camopi (2024)
-Les Centres délocalisés de prévention et de soins (CDPS)
-Particularité forte, le CHC assure et organise le maillage de l’offre de l’offre de soins primaires dans les territoires isolés avec 17 centres délocalisés de prévention et de soins (CDPS) et 8 lieux de consultations délocalisées, répartis sur l’ensemble du territoire et regroupant près de 180 professionnels hospitaliers.
+La reconstruction de trois centres délocalisés de prévention et de soins (CDPS) : Papaïchton (2022) Apatou (2023) et Camopi (2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_Andrée-Rosemon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_Andr%C3%A9e-Rosemon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L'hôpital de Cayenne Andrée - Rosemon</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Centres délocalisés de prévention et de soins (CDPS)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Particularité forte, le CHC assure et organise le maillage de l’offre de l’offre de soins primaires dans les territoires isolés avec 17 centres délocalisés de prévention et de soins (CDPS) et 8 lieux de consultations délocalisées, répartis sur l’ensemble du territoire et regroupant près de 180 professionnels hospitaliers.
 Acteurs uniques dans la majorité des communes, les centres de santé portent une offre unique de consultations, d’éducation à la santé et d’éducation thérapeutique, de dépistage, de prévention, de vaccination, de participation à des campagnes de recherche (mercure, plomb, paludisme...).
 Avec une file active de 30 000 patients, les CDPS ont réalisé 161 534 consultations en 2018 dont 60 000 consultations médicales.
 CDPS médicalisé 24h/24 : 
